--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/1.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/1.xlsx
@@ -479,13 +479,13 @@
         <v>-11.81061861527304</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.72270666298935</v>
+        <v>-12.10988533492772</v>
       </c>
       <c r="F2" t="n">
-        <v>1.524281736811707</v>
+        <v>-0.2257532917389747</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.9862122589309</v>
+        <v>-11.10371567693539</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-11.25385920593668</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.32018699547437</v>
+        <v>-12.65029631932565</v>
       </c>
       <c r="F3" t="n">
-        <v>1.634492742133357</v>
+        <v>-0.1386632932358129</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.76276592633116</v>
+        <v>-10.94016662983655</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-10.75956087171291</v>
       </c>
       <c r="E4" t="n">
-        <v>-12.8529127981042</v>
+        <v>-13.14830133481922</v>
       </c>
       <c r="F4" t="n">
-        <v>1.495583408982644</v>
+        <v>-0.2765121498563466</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.57654101071045</v>
+        <v>-10.83325488483101</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-10.40524272343241</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.41648406622914</v>
+        <v>-13.64986745668575</v>
       </c>
       <c r="F5" t="n">
-        <v>1.724986739375368</v>
+        <v>-0.007858095544127721</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.34664017280974</v>
+        <v>-10.68418592467512</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-10.15939294475866</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.16519358883893</v>
+        <v>-14.35440354950755</v>
       </c>
       <c r="F6" t="n">
-        <v>1.70786200725839</v>
+        <v>-0.02770602665218444</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.919503792598423</v>
+        <v>-10.45360428702664</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.02602335112112</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.73313768611301</v>
+        <v>-14.86992606620336</v>
       </c>
       <c r="F7" t="n">
-        <v>1.789584161596444</v>
+        <v>0.08258353248651595</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.815838938697636</v>
+        <v>-10.49432134886441</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-9.985096699405416</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.50416958506794</v>
+        <v>-15.54368215504427</v>
       </c>
       <c r="F8" t="n">
-        <v>2.093456510552906</v>
+        <v>0.3751179471820432</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.191859785260972</v>
+        <v>-9.890059203507381</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.01799909993659</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.35629520782452</v>
+        <v>-16.39222048682221</v>
       </c>
       <c r="F9" t="n">
-        <v>2.168239744384846</v>
+        <v>0.4891519049334773</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.568993477565854</v>
+        <v>-9.359454353937908</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.10827901508993</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.01338479514791</v>
+        <v>-17.10453340753201</v>
       </c>
       <c r="F10" t="n">
-        <v>2.436055891315194</v>
+        <v>0.6700351609947647</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.958748149810161</v>
+        <v>-8.832332056924333</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.2236033615179</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.98925886436449</v>
+        <v>-18.08767370482574</v>
       </c>
       <c r="F11" t="n">
-        <v>2.598662292609432</v>
+        <v>0.8454982036795774</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.656250492652079</v>
+        <v>-8.594588929621429</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.3555218899266</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.8977468508547</v>
+        <v>-18.96932247049042</v>
       </c>
       <c r="F12" t="n">
-        <v>2.860429795626903</v>
+        <v>1.03961777791385</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.112972293931815</v>
+        <v>-8.117819629337133</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.46970273662966</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.48814424750234</v>
+        <v>-19.46658122472201</v>
       </c>
       <c r="F13" t="n">
-        <v>2.817277565460574</v>
+        <v>0.9722840643988526</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.420402565907347</v>
+        <v>-7.503214564735144</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-10.56231347468551</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.44198397103629</v>
+        <v>-20.43099952895208</v>
       </c>
       <c r="F14" t="n">
-        <v>3.270218874572929</v>
+        <v>1.456463608091566</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.614440402970691</v>
+        <v>-6.691792911513487</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-10.61130712269825</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.34695012806208</v>
+        <v>-21.28625421208784</v>
       </c>
       <c r="F15" t="n">
-        <v>3.337618049602134</v>
+        <v>1.523522383246887</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.284370356027934</v>
+        <v>-6.364681725012961</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-10.61486346000235</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.11570396632255</v>
+        <v>-21.95194544237824</v>
       </c>
       <c r="F16" t="n">
-        <v>3.509677093548099</v>
+        <v>1.688014076150333</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.840868597264464</v>
+        <v>-5.920852658678448</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.57117969941107</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.01116511148525</v>
+        <v>-22.80904614021468</v>
       </c>
       <c r="F17" t="n">
-        <v>3.837796387367437</v>
+        <v>1.955254161755646</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.833288153919105</v>
+        <v>-5.911583308266505</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-10.4837207697426</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.99173931742201</v>
+        <v>-23.84073269644554</v>
       </c>
       <c r="F18" t="n">
-        <v>3.707161389612695</v>
+        <v>1.90613184149349</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.58439038459505</v>
+        <v>-5.685518515098422</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-10.37080069587523</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.66303405332867</v>
+        <v>-24.42598481807638</v>
       </c>
       <c r="F19" t="n">
-        <v>3.96691267799254</v>
+        <v>2.184448015302902</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.568221390585519</v>
+        <v>-5.660067078374106</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-10.23775443060957</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.09204263284635</v>
+        <v>-24.9229686339483</v>
       </c>
       <c r="F20" t="n">
-        <v>4.226218828075766</v>
+        <v>2.467686894980804</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.257423213425784</v>
+        <v>-5.392198562232391</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.11396215055276</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.78219028484509</v>
+        <v>-25.63262381718122</v>
       </c>
       <c r="F21" t="n">
-        <v>4.137557753231597</v>
+        <v>2.42699601774872</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.238832143390533</v>
+        <v>-5.254624643971533</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.00126393068352</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.29244969579853</v>
+        <v>-26.16144811356422</v>
       </c>
       <c r="F22" t="n">
-        <v>4.326610606266121</v>
+        <v>2.669962973885472</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.292602231161502</v>
+        <v>-5.408982894475483</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.923075693478228</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.72364468989078</v>
+        <v>-26.64299610438574</v>
       </c>
       <c r="F23" t="n">
-        <v>4.303725260898784</v>
+        <v>2.662447992054321</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.352918470353334</v>
+        <v>-5.342369257616781</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.874710160422914</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.12422987993907</v>
+        <v>-26.99634426578109</v>
       </c>
       <c r="F24" t="n">
-        <v>4.525011363529639</v>
+        <v>2.878287696703017</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.612774497155913</v>
+        <v>-5.541673383776377</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.860204071950879</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.22441218128396</v>
+        <v>-27.16222374278576</v>
       </c>
       <c r="F25" t="n">
-        <v>4.333130573081301</v>
+        <v>2.704107699696694</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.319768759558083</v>
+        <v>-5.193575235820564</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.868907198526877</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.59992561139034</v>
+        <v>-27.60957463858469</v>
       </c>
       <c r="F26" t="n">
-        <v>4.503958940560143</v>
+        <v>2.985618395399487</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.362253282279484</v>
+        <v>-5.263370302269806</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.886569632134737</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.47975136360614</v>
+        <v>-27.42977804365927</v>
       </c>
       <c r="F27" t="n">
-        <v>4.487907777276187</v>
+        <v>2.90902842377539</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.301099135705782</v>
+        <v>-5.220231164406319</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.902032269382248</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.76467915035062</v>
+        <v>-27.66447066440005</v>
       </c>
       <c r="F28" t="n">
-        <v>4.238211377478788</v>
+        <v>2.672633803665184</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.395795762159986</v>
+        <v>-5.256431381763691</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.891209129148519</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.75878761407185</v>
+        <v>-27.62028414230923</v>
       </c>
       <c r="F29" t="n">
-        <v>4.363190500405905</v>
+        <v>2.840634233730213</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.444865713210776</v>
+        <v>-5.286465124482611</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.848824039143697</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.4317942582969</v>
+        <v>-27.29624964697651</v>
       </c>
       <c r="F30" t="n">
-        <v>4.213859694193177</v>
+        <v>2.695597702849572</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.574060557652929</v>
+        <v>-5.350722146829803</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.75023477116774</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.20549380367766</v>
+        <v>-27.03685185077339</v>
       </c>
       <c r="F31" t="n">
-        <v>4.197834715514905</v>
+        <v>2.637153662964106</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.463496060154552</v>
+        <v>-5.244176986303835</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.597902221277954</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.91713583358865</v>
+        <v>-26.78180069911372</v>
       </c>
       <c r="F32" t="n">
-        <v>4.147141318911741</v>
+        <v>2.605182259424611</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.680448610544794</v>
+        <v>-5.435494807729978</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.379104813916037</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.70727931133862</v>
+        <v>-26.58144918872679</v>
       </c>
       <c r="F33" t="n">
-        <v>4.220746245487924</v>
+        <v>2.681772231048709</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.023663329540644</v>
+        <v>-5.7725823289959</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.102376856119417</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.21309724827482</v>
+        <v>-26.11567742282954</v>
       </c>
       <c r="F34" t="n">
-        <v>4.140542798279511</v>
+        <v>2.592901679359072</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.193378851277939</v>
+        <v>-5.899368189715175</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.772207192505162</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.88565875420326</v>
+        <v>-25.73005673492934</v>
       </c>
       <c r="F35" t="n">
-        <v>4.125827049885411</v>
+        <v>2.586800666234828</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.330206508276818</v>
+        <v>-5.989456325569092</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.401789797064668</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.60333633572428</v>
+        <v>-25.43973491941406</v>
       </c>
       <c r="F36" t="n">
-        <v>4.134049016070015</v>
+        <v>2.588267004153101</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.308041239565775</v>
+        <v>-5.8808949504055</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.008887767128281</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.13164684894257</v>
+        <v>-25.00831735617351</v>
       </c>
       <c r="F37" t="n">
-        <v>3.920618295144196</v>
+        <v>2.325373563091242</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.627611259629467</v>
+        <v>-6.116648047676461</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.604914884370449</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.57835303854838</v>
+        <v>-24.39889684349684</v>
       </c>
       <c r="F38" t="n">
-        <v>4.329229066834467</v>
+        <v>2.784808654413093</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.586776367066124</v>
+        <v>-6.07044531094801</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.215150923648143</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.21368003519494</v>
+        <v>-24.02334413648193</v>
       </c>
       <c r="F39" t="n">
-        <v>4.273455856728714</v>
+        <v>2.695257302975687</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.856661097845465</v>
+        <v>-6.321045079641488</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.845501393211796</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.63949090946537</v>
+        <v>-23.49366884041422</v>
       </c>
       <c r="F40" t="n">
-        <v>4.30506067578864</v>
+        <v>2.672790911299285</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.764281808994245</v>
+        <v>-6.147637528502827</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.520297845068044</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.18611755435923</v>
+        <v>-22.99938203892769</v>
       </c>
       <c r="F41" t="n">
-        <v>4.468164584590864</v>
+        <v>2.797115419084315</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.026258788857184</v>
+        <v>-6.401130696124326</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.240925143842252</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.63292848238778</v>
+        <v>-22.50103662356023</v>
       </c>
       <c r="F42" t="n">
-        <v>4.481990056391727</v>
+        <v>2.857811335058558</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.137739747554481</v>
+        <v>-6.524591111921803</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.020025275692246</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.00935519033921</v>
+        <v>-21.84441835913914</v>
       </c>
       <c r="F43" t="n">
-        <v>4.416738019028564</v>
+        <v>2.80329498602561</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.004643396865494</v>
+        <v>-6.288275045628648</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.85537657919791</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.75726289912177</v>
+        <v>-21.65019404648214</v>
       </c>
       <c r="F44" t="n">
-        <v>4.486048670272662</v>
+        <v>2.786117884697266</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.909619462840246</v>
+        <v>-6.113191679726246</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.745501798703408</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.01487695878454</v>
+        <v>-20.8332867183698</v>
       </c>
       <c r="F45" t="n">
-        <v>4.381991047286623</v>
+        <v>2.702379515721586</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.914083938109275</v>
+        <v>-6.12915119689031</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.687341033807334</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.46015608738061</v>
+        <v>-20.25005081137659</v>
       </c>
       <c r="F46" t="n">
-        <v>4.107445456695627</v>
+        <v>2.415736637304835</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.909894401199923</v>
+        <v>-6.111934818653439</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.668517664004316</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.62595382721435</v>
+        <v>-19.37502675094983</v>
       </c>
       <c r="F47" t="n">
-        <v>4.375680557316911</v>
+        <v>2.724505507524103</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.008112857118552</v>
+        <v>-6.126087598025345</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.688778756568233</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.92319828757902</v>
+        <v>-18.72791349839183</v>
       </c>
       <c r="F48" t="n">
-        <v>4.219096615329867</v>
+        <v>2.529613487422168</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.21654231835883</v>
+        <v>-6.397085174546233</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.731487211012675</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.38908470084796</v>
+        <v>-18.14924680509038</v>
       </c>
       <c r="F49" t="n">
-        <v>4.312470919197057</v>
+        <v>2.612513949015978</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.508971994631624</v>
+        <v>-6.714992472149025</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.798756054815274</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.79559752072968</v>
+        <v>-17.58576718308533</v>
       </c>
       <c r="F50" t="n">
-        <v>4.194430716776055</v>
+        <v>2.52992770269037</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.350123084252962</v>
+        <v>-6.532106093752954</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.877036388265223</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.37313509263286</v>
+        <v>-17.16876424527351</v>
       </c>
       <c r="F51" t="n">
-        <v>4.333549526772236</v>
+        <v>2.646344459558998</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.619641230552735</v>
+        <v>-6.75872076364039</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.964484804570414</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.06481136071021</v>
+        <v>-16.78450515686885</v>
       </c>
       <c r="F52" t="n">
-        <v>4.196551669836415</v>
+        <v>2.496987468740587</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.625153090049102</v>
+        <v>-6.739239417011902</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.051379218654996</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.11479458960604</v>
+        <v>-15.81919657604555</v>
       </c>
       <c r="F53" t="n">
-        <v>4.252481987576268</v>
+        <v>2.545428989254974</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.715987487164996</v>
+        <v>-6.78875450635931</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.130795456909081</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.46905602884643</v>
+        <v>-15.14434073376594</v>
       </c>
       <c r="F54" t="n">
-        <v>4.116636253290519</v>
+        <v>2.434458630368503</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.130293410591418</v>
+        <v>-7.203754321836343</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.199791678424389</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.05431805942623</v>
+        <v>-14.65535631493031</v>
       </c>
       <c r="F55" t="n">
-        <v>4.190398287500804</v>
+        <v>2.490231840474256</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.380853902376372</v>
+        <v>-7.445032370906513</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.250884953382243</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.93981277877249</v>
+        <v>-14.55344582961031</v>
       </c>
       <c r="F56" t="n">
-        <v>4.039705881792536</v>
+        <v>2.345588078678867</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.5430806268882</v>
+        <v>-7.510533162023669</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.289404585259007</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.57813791276981</v>
+        <v>-14.14238679728864</v>
       </c>
       <c r="F57" t="n">
-        <v>4.117395606855339</v>
+        <v>2.484994919337566</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.406004216135328</v>
+        <v>-7.325277076813244</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.307723690032385</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.43002469072136</v>
+        <v>-14.04605363297922</v>
       </c>
       <c r="F58" t="n">
-        <v>4.010195831187287</v>
+        <v>2.379680435278722</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.672916994169597</v>
+        <v>-7.643943727980857</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.313663083199556</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.80061223160538</v>
+        <v>-13.43819110434072</v>
       </c>
       <c r="F59" t="n">
-        <v>4.054604922426421</v>
+        <v>2.394160522221671</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.064913633553717</v>
+        <v>-8.082902457658248</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.301708310658211</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.44497291721274</v>
+        <v>-12.94576340985772</v>
       </c>
       <c r="F60" t="n">
-        <v>4.183276074754905</v>
+        <v>2.566455227618786</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.086659948573825</v>
+        <v>-8.053876822258141</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.278231993362332</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.3365555573804</v>
+        <v>-12.8950831055574</v>
       </c>
       <c r="F61" t="n">
-        <v>4.154446823897424</v>
+        <v>2.557212061812527</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.259753284444285</v>
+        <v>-8.256087439648601</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.243104579546833</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.01999676697031</v>
+        <v>-12.58609166618982</v>
       </c>
       <c r="F62" t="n">
-        <v>4.119280898464548</v>
+        <v>2.543098559349146</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.388908851977913</v>
+        <v>-8.334876918150108</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.199896166025125</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.52559213475821</v>
+        <v>-12.08857106590139</v>
       </c>
       <c r="F63" t="n">
-        <v>3.97502990575441</v>
+        <v>2.339277588709155</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.460458287007945</v>
+        <v>-8.3769817640891</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.153565642065965</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.411126131013</v>
+        <v>-11.90300076542276</v>
       </c>
       <c r="F64" t="n">
-        <v>3.944891424612757</v>
+        <v>2.336423466689658</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.301386807480974</v>
+        <v>-8.249017596114069</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.102899908994298</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.26667875376023</v>
+        <v>-11.76393432463795</v>
       </c>
       <c r="F65" t="n">
-        <v>3.832978419921682</v>
+        <v>2.208799698588513</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.437009972618414</v>
+        <v>-8.490858614206433</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.056561159242881</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.33316146759052</v>
+        <v>-11.862283703585</v>
       </c>
       <c r="F66" t="n">
-        <v>3.875633142580026</v>
+        <v>2.256167650269878</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.571219169048948</v>
+        <v>-8.59725975940114</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.00950904969996</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.22525470756901</v>
+        <v>-11.69861682576058</v>
       </c>
       <c r="F67" t="n">
-        <v>3.740887161732981</v>
+        <v>2.033703240383268</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.513691590362404</v>
+        <v>-8.484967077927656</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-5.971699233709606</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.95648282253122</v>
+        <v>-11.49895920742426</v>
       </c>
       <c r="F68" t="n">
-        <v>3.489933900862776</v>
+        <v>1.814669013841191</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.505273239635173</v>
+        <v>-8.455011889025787</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-5.937382985171372</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.93096592429269</v>
+        <v>-11.440580629053</v>
       </c>
       <c r="F69" t="n">
-        <v>3.405357624505225</v>
+        <v>1.672041466683428</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.400508632295681</v>
+        <v>-8.376955579483417</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-5.912883592483922</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.05074740299164</v>
+        <v>-11.58035405419127</v>
       </c>
       <c r="F70" t="n">
-        <v>3.334816296794005</v>
+        <v>1.603673461243934</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.478879157106254</v>
+        <v>-8.462291209405787</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.894612625258199</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.16804134415067</v>
+        <v>-11.75516248173399</v>
       </c>
       <c r="F71" t="n">
-        <v>3.28744834511264</v>
+        <v>1.57557737934559</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.388738652040969</v>
+        <v>-8.311101296189534</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.882556133240805</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.13727443247261</v>
+        <v>-11.6804578017191</v>
       </c>
       <c r="F72" t="n">
-        <v>3.10889551895718</v>
+        <v>1.393175416154662</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.413456919806148</v>
+        <v>-8.30621786722957</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.876887930520066</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.31780419635717</v>
+        <v>-11.88471081835287</v>
       </c>
       <c r="F73" t="n">
-        <v>2.948959947442654</v>
+        <v>1.200784025895498</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.068710401377817</v>
+        <v>-7.930049821981097</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.872978847188517</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.62438665200187</v>
+        <v>-12.22580458428836</v>
       </c>
       <c r="F74" t="n">
-        <v>2.967969971168841</v>
+        <v>1.192732259647836</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.790983381196282</v>
+        <v>-7.662835920981467</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.876235657643824</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.9061591937615</v>
+        <v>-12.54166948264785</v>
       </c>
       <c r="F75" t="n">
-        <v>2.83856564988122</v>
+        <v>1.079654040003848</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.482397803216799</v>
+        <v>-7.307785760216698</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.878784911738727</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.06233727436045</v>
+        <v>-12.65905506992676</v>
       </c>
       <c r="F76" t="n">
-        <v>2.695257302975687</v>
+        <v>0.9023187980126686</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.479386573563202</v>
+        <v>-7.259985762541556</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.888745905016096</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.4142452824432</v>
+        <v>-12.99221490034016</v>
       </c>
       <c r="F77" t="n">
-        <v>2.820445902748272</v>
+        <v>0.9890683966419455</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.350833251960294</v>
+        <v>-7.110524033300412</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.898812834961606</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.67643173915161</v>
+        <v>-13.34287913965296</v>
       </c>
       <c r="F78" t="n">
-        <v>2.673262234201587</v>
+        <v>0.8643249351659795</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.035046907417861</v>
+        <v>-6.725152099154205</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.915462076727882</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.00860964685188</v>
+        <v>-13.66415115908607</v>
       </c>
       <c r="F79" t="n">
-        <v>2.415736637304835</v>
+        <v>0.5770929031213513</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.083855012411816</v>
+        <v>-6.798796302638914</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.936509172056928</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.49480540518222</v>
+        <v>-14.16108260574663</v>
       </c>
       <c r="F80" t="n">
-        <v>2.62186185324497</v>
+        <v>0.7901177626590762</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.97898566664959</v>
+        <v>-6.670675027029783</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.964322592824868</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.95282652779717</v>
+        <v>-14.60332750343729</v>
       </c>
       <c r="F81" t="n">
-        <v>2.555352954809002</v>
+        <v>0.732917491543575</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.912070906825528</v>
+        <v>-6.601730960265253</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.002881404254261</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.61739182004318</v>
+        <v>-15.2487518489287</v>
       </c>
       <c r="F82" t="n">
-        <v>2.607250843273604</v>
+        <v>0.7757162295331774</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.806206546047331</v>
+        <v>-6.513318639175077</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.051480335780107</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.32482131179301</v>
+        <v>-15.89233017971943</v>
       </c>
       <c r="F83" t="n">
-        <v>2.638201047191445</v>
+        <v>0.76306906498807</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.808497699044633</v>
+        <v>-6.508330471792379</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-6.122270826642057</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.1527261742924</v>
+        <v>-16.70000743432835</v>
       </c>
       <c r="F84" t="n">
-        <v>2.639300800630149</v>
+        <v>0.7693926472606237</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.48185783544641</v>
+        <v>-6.263936454645879</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.211548627665871</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.49582624591655</v>
+        <v>-18.05223284103319</v>
       </c>
       <c r="F85" t="n">
-        <v>2.60206629134828</v>
+        <v>0.7440721335647256</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.124883106163907</v>
+        <v>-5.887860055517298</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.33463297954214</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.53098226240046</v>
+        <v>-19.16371698308437</v>
       </c>
       <c r="F86" t="n">
-        <v>2.566141012350584</v>
+        <v>0.7488508241019556</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.743779262744102</v>
+        <v>-5.506036135441199</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.48650226574548</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.54941940815549</v>
+        <v>-20.14903060264983</v>
       </c>
       <c r="F87" t="n">
-        <v>2.425686787464547</v>
+        <v>0.5614868781340138</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.649999097488818</v>
+        <v>-5.404767172960447</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-6.676869838251572</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.97517118761946</v>
+        <v>-21.62792403934836</v>
       </c>
       <c r="F88" t="n">
-        <v>2.39044230821462</v>
+        <v>0.5052423451259587</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.315032529283257</v>
+        <v>-5.07180372708967</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.903967843419728</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.5070622662213</v>
+        <v>-23.15123965958887</v>
       </c>
       <c r="F89" t="n">
-        <v>2.501648328552242</v>
+        <v>0.6136335203526088</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.447356434104583</v>
+        <v>-5.232105883083764</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.168559368306461</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.89491182895848</v>
+        <v>-24.52742398049407</v>
       </c>
       <c r="F90" t="n">
-        <v>2.496673253472386</v>
+        <v>0.5965611574469979</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.379708505321384</v>
+        <v>-5.122065077699056</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.473307237754247</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.35296231953298</v>
+        <v>-26.00485107927433</v>
       </c>
       <c r="F91" t="n">
-        <v>2.420973558441526</v>
+        <v>0.5639351387654166</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.246664523843764</v>
+        <v>-4.994205648146759</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.810880154816327</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.05210756693788</v>
+        <v>-27.71885609040458</v>
       </c>
       <c r="F92" t="n">
-        <v>2.475332799840372</v>
+        <v>0.5807325633113511</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.432902531767317</v>
+        <v>-5.192239820930708</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.190947594165564</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.95519161570834</v>
+        <v>-29.60696254472411</v>
       </c>
       <c r="F93" t="n">
-        <v>2.498218145207709</v>
+        <v>0.656969042758722</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.778460772971835</v>
+        <v>-5.613772695525762</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.600036253769689</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.10983117127972</v>
+        <v>-31.79959596314218</v>
       </c>
       <c r="F94" t="n">
-        <v>2.452054685387783</v>
+        <v>0.5975954493714943</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.589682858296986</v>
+        <v>-5.423476073721274</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.048993750719539</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.9748297110836</v>
+        <v>-33.56684736992973</v>
       </c>
       <c r="F95" t="n">
-        <v>2.275334781630165</v>
+        <v>0.4618413612056367</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.858284543397839</v>
+        <v>-5.718236179899895</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.527600550364308</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.44367144255357</v>
+        <v>-35.98248198265092</v>
       </c>
       <c r="F96" t="n">
-        <v>2.312150337221099</v>
+        <v>0.6367676194739387</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.149850127683078</v>
+        <v>-6.131324519162035</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.03319551600362</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.72294972117818</v>
+        <v>-38.2302470883355</v>
       </c>
       <c r="F97" t="n">
-        <v>2.323357348453616</v>
+        <v>0.7084741621380723</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.538036906940256</v>
+        <v>-6.591427317928815</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.56802846130807</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.97977470042924</v>
+        <v>-40.45714306329037</v>
       </c>
       <c r="F98" t="n">
-        <v>1.885288895369462</v>
+        <v>0.3279463800433042</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.593679194017592</v>
+        <v>-6.652267249234316</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.10812012720633</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.24859222908331</v>
+        <v>-42.6606169084614</v>
       </c>
       <c r="F99" t="n">
-        <v>1.819827381160831</v>
+        <v>0.2491961784503219</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.933424452760383</v>
+        <v>-7.07068415575304</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.68036939255013</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.53194221389171</v>
+        <v>-44.94669009226087</v>
       </c>
       <c r="F100" t="n">
-        <v>1.579688362437892</v>
+        <v>0.06146564800281181</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.985675833401712</v>
+        <v>-7.190269249909365</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.22431796850779</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.60378604629202</v>
+        <v>-46.90745882735197</v>
       </c>
       <c r="F101" t="n">
-        <v>1.285360302253048</v>
+        <v>-0.1204518999829719</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.953390214594015</v>
+        <v>-7.327227829936661</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.82411746855808</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.20827712750511</v>
+        <v>-49.51820802932341</v>
       </c>
       <c r="F102" t="n">
-        <v>1.209765345644922</v>
+        <v>-0.02435439712470257</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.203492475779509</v>
+        <v>-7.699991876446286</v>
       </c>
     </row>
   </sheetData>
